--- a/docs/Taski_material_do_ganta.xlsx
+++ b/docs/Taski_material_do_ganta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Pulpit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia-drugiego-stopnia\programowanie zespolowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E727A07-307D-495F-958F-E7BB39727BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956A905-9E87-4D15-86A7-C11E2AA1E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0E216BC-78B3-41E0-9A57-27EAA5895317}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E0E216BC-78B3-41E0-9A57-27EAA5895317}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>Backend</t>
   </si>
@@ -146,6 +146,39 @@
   </si>
   <si>
     <t>Osadzenie playera z trailerem na stronie aplikacji</t>
+  </si>
+  <si>
+    <t>Osoba</t>
+  </si>
+  <si>
+    <t>Estymata (w dniach)</t>
+  </si>
+  <si>
+    <t>Daniel Kułaga</t>
+  </si>
+  <si>
+    <t>Daniel Kułaga &amp; Marcin Chamera</t>
+  </si>
+  <si>
+    <t>Marcin Chamera</t>
+  </si>
+  <si>
+    <t>Daniel Koszyk</t>
+  </si>
+  <si>
+    <t>kazda osoba ma 6 story pointsow do zuzycia</t>
+  </si>
+  <si>
+    <t>Robert Ochmanek</t>
+  </si>
+  <si>
+    <t>Dariusz Dyrga</t>
+  </si>
+  <si>
+    <t>Maciek Mularski</t>
+  </si>
+  <si>
+    <t>Daniel Kułaga &amp; Maciej Mularski</t>
   </si>
 </sst>
 </file>
@@ -231,9 +264,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,10 +299,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00010B85-D124-433B-A7EA-FAD8BA25CEAE}" name="Table1" displayName="Table1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D1048575" xr:uid="{00010B85-D124-433B-A7EA-FAD8BA25CEAE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D699191B-1405-4159-B3E7-F078B41D4B05}" name="Nazwa story"/>
+    <tableColumn id="2" xr3:uid="{08ED2FB2-B72B-4051-B431-2140469A69D3}" name="Estymata (w dniach)"/>
+    <tableColumn id="3" xr3:uid="{DCAEC49C-AF8E-4580-B7A3-D381B3640A26}" name="Dział"/>
+    <tableColumn id="4" xr3:uid="{2A700F50-3DD3-4701-B094-02034B387CB9}" name="Osoba"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,14 +611,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6230BC-5D67-4E0F-AA87-12E0A8EF9744}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,32 +628,41 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="3">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>31</v>
@@ -595,11 +672,14 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="3">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>32</v>
@@ -609,11 +689,14 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
+      <c r="B5" s="3">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -621,182 +704,229 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>0</v>
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.5</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>SUBTOTAL(109,B2:B20)</f>
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
